--- a/biblioteca_reserva_petropolis.xlsx
+++ b/biblioteca_reserva_petropolis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Biblioteca Reserva Petropolis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\source\repos\biblioteca.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B200F57-73BE-4EDA-9D0E-B0F5FE676B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECE9811-755C-484D-8F3B-D9B3906BA0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="692">
   <si>
     <t>Title</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Memo</t>
   </si>
   <si>
-    <t>Desciption</t>
-  </si>
-  <si>
     <t>Image(URL)</t>
   </si>
   <si>
@@ -2093,6 +2090,12 @@
   </si>
   <si>
     <t>Vestibular 2001 - V. 2 - Simoes Lopes Neto - Contos Gauchescos</t>
+  </si>
+  <si>
+    <t>Relato de viagem renascentista, verídico, em nova e cuidada versão, este livro recupera e reconta fatos extraordinários. O texto, extraído das anotações de Richard Hawkins, corsário inglês, mantém o sabor original da realidade impiedosa dos saques, das conquistas e das batalhas.</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -2395,12 +2398,15 @@
   </sheetPr>
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7265625" customWidth="1"/>
     <col min="4" max="4" width="25.54296875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,15 +2435,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D2" s="7">
         <v>9788525410276</v>
@@ -2445,10 +2451,10 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D3" s="7">
         <v>9788528608618</v>
@@ -2460,15 +2466,15 @@
         <v>160</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D4" s="7">
         <v>9788525409935</v>
@@ -2476,7 +2482,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D5" s="7">
         <v>9507825444</v>
@@ -2484,7 +2490,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D6" s="7">
         <v>9788525047922</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D7" s="7">
         <v>9788521902249</v>
@@ -2500,10 +2506,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D8" s="7">
         <v>9788525411334</v>
@@ -2515,15 +2521,15 @@
         <v>167</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D9" s="7">
         <v>9788574023526</v>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D10" s="7">
         <v>9788582862582</v>
@@ -2539,10 +2545,10 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D11" s="7">
         <v>9788535903706</v>
@@ -2554,18 +2560,18 @@
         <v>179</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="D12" s="7">
         <v>9788589020039</v>
@@ -2577,18 +2583,18 @@
         <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="D13" s="7">
         <v>9788599296363</v>
@@ -2600,15 +2606,15 @@
         <v>236</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" s="7">
         <v>9788580410259</v>
@@ -2616,10 +2622,10 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D15" s="7">
         <v>9788573022391</v>
@@ -2631,21 +2637,21 @@
         <v>163</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D16" s="7">
         <v>9788532521507</v>
@@ -2657,18 +2663,18 @@
         <v>128</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="D17" s="7">
         <v>9788580572261</v>
@@ -2680,18 +2686,18 @@
         <v>288</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D18" s="7">
         <v>9788500014833</v>
@@ -2703,18 +2709,18 @@
         <v>340</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D19" s="7">
         <v>9788586796340</v>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D20" s="7">
         <v>9788581632575</v>
@@ -2730,7 +2736,7 @@
     </row>
     <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D21" s="7">
         <v>9788501104656</v>
@@ -2742,12 +2748,12 @@
         <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D22" s="7">
         <v>9788536403595</v>
@@ -2755,7 +2761,7 @@
     </row>
     <row r="23" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D23" s="7">
         <v>9788534514088</v>
@@ -2767,15 +2773,15 @@
         <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D24" s="7">
         <v>9788575423509</v>
@@ -2783,10 +2789,10 @@
     </row>
     <row r="25" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="D25" s="7">
         <v>9788531206856</v>
@@ -2798,15 +2804,15 @@
         <v>614</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D26" s="7">
         <v>9788575423011</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D27" s="7">
         <v>9788525411464</v>
@@ -2822,7 +2828,7 @@
     </row>
     <row r="28" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D28" s="7">
         <v>9788594318787</v>
@@ -2830,7 +2836,7 @@
     </row>
     <row r="29" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D29" s="7">
         <v>9788573799446</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="30" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D30" s="7">
         <v>9788525413376</v>
@@ -2846,7 +2852,7 @@
     </row>
     <row r="31" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D31" s="7">
         <v>9788563066695</v>
@@ -2854,7 +2860,7 @@
     </row>
     <row r="32" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D32" s="7">
         <v>9788575423318</v>
@@ -2862,10 +2868,10 @@
     </row>
     <row r="33" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="D33" s="7">
         <v>9780831733988</v>
@@ -2877,21 +2883,21 @@
         <v>400</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D34" s="7">
         <v>9788574210360</v>
@@ -2903,15 +2909,18 @@
         <v>429</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D35" s="7">
         <v>9789500819947</v>
@@ -2923,18 +2932,18 @@
         <v>344</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D36" s="7">
         <v>9788575811696</v>
@@ -2942,13 +2951,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D37" s="7">
         <v>9788573026443</v>
@@ -2960,15 +2969,15 @@
         <v>197</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D38" s="7">
         <v>9788525405319</v>
@@ -2976,7 +2985,7 @@
     </row>
     <row r="39" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D39" s="7">
         <v>9788501036889</v>
@@ -2984,13 +2993,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="7">
         <v>9788525420671</v>
@@ -3002,15 +3011,15 @@
         <v>238</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D41" s="7">
         <v>9788506061350</v>
@@ -3018,10 +3027,10 @@
     </row>
     <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42" s="7">
         <v>9788573022759</v>
@@ -3033,18 +3042,18 @@
         <v>238</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D43" s="7">
         <v>9788571641495</v>
@@ -3056,21 +3065,21 @@
         <v>150</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="D44" s="7">
         <v>8535907254</v>
@@ -3082,15 +3091,15 @@
         <v>207</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D45" s="7">
         <v>9788576655206</v>
@@ -3098,10 +3107,10 @@
     </row>
     <row r="46" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>593</v>
+      </c>
+      <c r="C46" t="s">
         <v>594</v>
-      </c>
-      <c r="C46" t="s">
-        <v>595</v>
       </c>
       <c r="D46" s="7">
         <v>9788501097156</v>
@@ -3109,7 +3118,7 @@
     </row>
     <row r="47" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D47" s="7">
         <v>9788525409553</v>
@@ -3117,7 +3126,7 @@
     </row>
     <row r="48" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D48" s="7">
         <v>9788501091338</v>
@@ -3125,10 +3134,10 @@
     </row>
     <row r="49" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="D49" s="7">
         <v>9781876553333</v>
@@ -3140,18 +3149,18 @@
         <v>128</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="D50" s="7">
         <v>9788522006588</v>
@@ -3163,18 +3172,18 @@
         <v>186</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D51" s="7">
         <v>9785397036610</v>
@@ -3186,18 +3195,18 @@
         <v>168</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="D52" s="7">
         <v>9788525417398</v>
@@ -3209,18 +3218,18 @@
         <v>166</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="D53" s="7">
         <v>9788501060266</v>
@@ -3232,18 +3241,18 @@
         <v>459</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D54" s="7">
         <v>9789726952831</v>
@@ -3255,12 +3264,12 @@
         <v>90</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D55" s="7">
         <v>9788520506301</v>
@@ -3268,7 +3277,7 @@
     </row>
     <row r="56" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D56" s="7">
         <v>9788525418722</v>
@@ -3276,13 +3285,13 @@
     </row>
     <row r="57" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D57" s="7">
         <v>9788535214314</v>
@@ -3294,21 +3303,21 @@
         <v>228</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D58" s="7">
         <v>9788520502235</v>
@@ -3320,15 +3329,15 @@
         <v>317</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D59" s="7">
         <v>9788535914061</v>
@@ -3336,13 +3345,13 @@
     </row>
     <row r="60" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D60" s="7">
         <v>9788588720046</v>
@@ -3354,21 +3363,21 @@
         <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D61" s="7">
         <v>9788575221150</v>
@@ -3380,21 +3389,21 @@
         <v>176</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="7">
         <v>9788525424495</v>
@@ -3406,15 +3415,15 @@
         <v>185</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D63" s="7">
         <v>9788583432593</v>
@@ -3422,13 +3431,13 @@
     </row>
     <row r="64" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D64" s="7">
         <v>9788589489607</v>
@@ -3440,12 +3449,12 @@
         <v>204</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D65" s="7">
         <v>9788589489799</v>
@@ -3453,7 +3462,7 @@
     </row>
     <row r="66" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D66" s="7">
         <v>9788577440092</v>
@@ -3461,7 +3470,7 @@
     </row>
     <row r="67" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D67" s="7">
         <v>9788589310031</v>
@@ -3469,7 +3478,7 @@
     </row>
     <row r="68" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D68" s="7">
         <v>9788471646378</v>
@@ -3477,10 +3486,10 @@
     </row>
     <row r="69" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>595</v>
+      </c>
+      <c r="C69" t="s">
         <v>596</v>
-      </c>
-      <c r="C69" t="s">
-        <v>597</v>
       </c>
       <c r="D69" s="7">
         <v>9788520935521</v>
@@ -3488,7 +3497,7 @@
     </row>
     <row r="70" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D70" s="7">
         <v>9788535908459</v>
@@ -3496,10 +3505,10 @@
     </row>
     <row r="71" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D71" s="7">
         <v>9788580572186</v>
@@ -3511,18 +3520,18 @@
         <v>480</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D72" s="7">
         <v>9788477511472</v>
@@ -3534,12 +3543,12 @@
         <v>177</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D73" s="7">
         <v>9788555791154</v>
@@ -3547,7 +3556,7 @@
     </row>
     <row r="74" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D74" s="7">
         <v>9788530932725</v>
@@ -3555,7 +3564,7 @@
     </row>
     <row r="75" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D75" s="7">
         <v>9788565907026</v>
@@ -3563,7 +3572,7 @@
     </row>
     <row r="76" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D76" s="7">
         <v>9788562168475</v>
@@ -3571,10 +3580,10 @@
     </row>
     <row r="77" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D77" s="7">
         <v>9788562168086</v>
@@ -3583,29 +3592,29 @@
         <v>1247</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D78" s="7">
         <v>9788574970806</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D79" s="7">
         <v>9788573749328</v>
@@ -3613,7 +3622,7 @@
     </row>
     <row r="80" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D80" s="7">
         <v>9781740333788</v>
@@ -3621,7 +3630,7 @@
     </row>
     <row r="81" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D81" s="7">
         <v>9788525410801</v>
@@ -3629,10 +3638,10 @@
     </row>
     <row r="82" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D82" s="7">
         <v>9788535900873</v>
@@ -3644,21 +3653,21 @@
         <v>284</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D83" s="7">
         <v>9788525406392</v>
@@ -3670,18 +3679,18 @@
         <v>141</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D84" s="7">
         <v>9788500001406</v>
@@ -3693,18 +3702,18 @@
         <v>238</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D85" s="7">
         <v>9788560280148</v>
@@ -3713,15 +3722,15 @@
         <v>304</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D86" s="7">
         <v>9788589489782</v>
@@ -3729,7 +3738,7 @@
     </row>
     <row r="87" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D87" s="7">
         <v>9788571646667</v>
@@ -3737,24 +3746,24 @@
     </row>
     <row r="88" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D88" s="7">
         <v>9788588477469</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D89" s="7">
         <v>9788590219224</v>
@@ -3762,10 +3771,10 @@
     </row>
     <row r="90" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D90" s="7">
         <v>9788588350069</v>
@@ -3777,15 +3786,15 @@
         <v>166</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D91" s="7">
         <v>9788525418715</v>
@@ -3793,7 +3802,7 @@
     </row>
     <row r="92" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D92" s="7">
         <v>9788574210070</v>
@@ -3801,7 +3810,7 @@
     </row>
     <row r="93" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D93" s="7">
         <v>9788562989094</v>
@@ -3809,13 +3818,13 @@
     </row>
     <row r="94" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D94" s="7">
         <v>9788532620224</v>
@@ -3827,15 +3836,15 @@
         <v>147</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D95" s="7">
         <v>9788588350939</v>
@@ -3843,7 +3852,7 @@
     </row>
     <row r="96" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D96" s="7">
         <v>9788556510068</v>
@@ -3851,10 +3860,10 @@
     </row>
     <row r="97" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D97" s="7">
         <v>9788525046475</v>
@@ -3866,24 +3875,24 @@
         <v>287</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I97" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D98" s="7">
         <v>9788575423929</v>
@@ -3895,21 +3904,21 @@
         <v>270</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D99" s="7">
         <v>9788589680165</v>
@@ -3921,12 +3930,12 @@
         <v>243</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D100" s="7">
         <v>9788535903454</v>
@@ -3934,10 +3943,10 @@
     </row>
     <row r="101" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D101" s="7">
         <v>9788586971020</v>
@@ -3949,15 +3958,15 @@
         <v>123</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="D102" s="7">
         <v>9788586232046</v>
@@ -3969,18 +3978,18 @@
         <v>552</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D103" s="7">
         <v>9788525404688</v>
@@ -3992,21 +4001,21 @@
         <v>120</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D104" s="7">
         <v>9788574970929</v>
@@ -4018,15 +4027,15 @@
         <v>277</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D105" s="7">
         <v>9788526702820</v>
@@ -4034,10 +4043,10 @@
     </row>
     <row r="106" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D106" s="7">
         <v>9788526232921</v>
@@ -4049,15 +4058,15 @@
         <v>192</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D107" s="7">
         <v>9788535232660</v>
@@ -4066,12 +4075,12 @@
         <v>488</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D108" s="7">
         <v>9788530931728</v>
@@ -4079,7 +4088,7 @@
     </row>
     <row r="109" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D109" s="7">
         <v>9788535232677</v>
@@ -4087,7 +4096,7 @@
     </row>
     <row r="110" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D110" s="7">
         <v>9788530930028</v>
@@ -4095,7 +4104,7 @@
     </row>
     <row r="111" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D111" s="7">
         <v>9788535233209</v>
@@ -4103,7 +4112,7 @@
     </row>
     <row r="112" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D112" s="7">
         <v>9788535233988</v>
@@ -4111,7 +4120,7 @@
     </row>
     <row r="113" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D113" s="7">
         <v>9788530931346</v>
@@ -4119,10 +4128,10 @@
     </row>
     <row r="114" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D114" s="7">
         <v>9788506061138</v>
@@ -4134,18 +4143,18 @@
         <v>80</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D115" s="7">
         <v>9782253036951</v>
@@ -4157,18 +4166,18 @@
         <v>253</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D116" s="7">
         <v>9788576768609</v>
@@ -4180,21 +4189,21 @@
         <v>131</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D117" s="7">
         <v>9788525412492</v>
@@ -4206,18 +4215,18 @@
         <v>188</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="D118" s="7">
         <v>9788598078410</v>
@@ -4229,18 +4238,18 @@
         <v>446</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="D119" s="7">
         <v>9788564161184</v>
@@ -4252,15 +4261,15 @@
         <v>231</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="D120" s="7">
         <v>9788525409140</v>
@@ -4272,15 +4281,15 @@
         <v>104</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D121" s="7">
         <v>9789500286541</v>
@@ -4288,7 +4297,7 @@
     </row>
     <row r="122" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D122" s="7">
         <v>9788534523028</v>
@@ -4296,7 +4305,7 @@
     </row>
     <row r="123" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D123" s="7">
         <v>9788538087656</v>
@@ -4304,7 +4313,7 @@
     </row>
     <row r="124" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D124" s="7">
         <v>9788568786000</v>
@@ -4312,10 +4321,10 @@
     </row>
     <row r="125" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D125" s="7">
         <v>9788526010147</v>
@@ -4327,15 +4336,15 @@
         <v>112</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D126" s="7">
         <v>9788534525916</v>
@@ -4343,13 +4352,13 @@
     </row>
     <row r="127" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D127" s="7">
         <v>9788576651680</v>
@@ -4361,15 +4370,15 @@
         <v>302</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D128" s="7">
         <v>9788579142086</v>
@@ -4377,10 +4386,10 @@
     </row>
     <row r="129" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D129" s="7">
         <v>9788525410955</v>
@@ -4392,21 +4401,21 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D130" s="7">
         <v>9788585627829</v>
@@ -4418,15 +4427,15 @@
         <v>92</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D131" s="7">
         <v>9788525415608</v>
@@ -4434,10 +4443,10 @@
     </row>
     <row r="132" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D132" s="7">
         <v>9788525406590</v>
@@ -4449,18 +4458,18 @@
         <v>174</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D133" s="7">
         <v>9788525416612</v>
@@ -4472,15 +4481,15 @@
         <v>176</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D134" s="7">
         <v>9788501018526</v>
@@ -4488,10 +4497,10 @@
     </row>
     <row r="135" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="D135" s="7">
         <v>9788589239806</v>
@@ -4500,18 +4509,18 @@
         <v>328</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="D136" s="7">
         <v>9788573025750</v>
@@ -4523,18 +4532,18 @@
         <v>333</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D137" s="7">
         <v>9788586103421</v>
@@ -4546,15 +4555,15 @@
         <v>187</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D138" s="7">
         <v>679816798</v>
@@ -4566,21 +4575,21 @@
         <v>62</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I138" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J138" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="D139" s="7">
         <v>9788501085368</v>
@@ -4592,15 +4601,15 @@
         <v>318</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D140" s="7">
         <v>9788573370294</v>
@@ -4608,10 +4617,10 @@
     </row>
     <row r="141" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D141" s="7">
         <v>9788588948822</v>
@@ -4623,15 +4632,15 @@
         <v>275</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D142" s="7">
         <v>9788535926439</v>
@@ -4639,13 +4648,13 @@
     </row>
     <row r="143" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D143" s="7">
         <v>9788574211091</v>
@@ -4657,21 +4666,21 @@
         <v>253</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D144" s="7">
         <v>9798508057459</v>
@@ -4683,15 +4692,15 @@
         <v>120</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D145" s="7">
         <v>9788501041470</v>
@@ -4699,33 +4708,33 @@
     </row>
     <row r="146" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D146" s="7">
         <v>9788589680073</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F146" s="1">
         <v>75</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D147" s="7">
         <v>9780060518950</v>
@@ -4737,24 +4746,24 @@
         <v>64</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J147" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D148" s="7">
         <v>9780545139700</v>
@@ -4763,18 +4772,18 @@
         <v>2008</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D149" s="7">
         <v>9780747595861</v>
@@ -4786,21 +4795,21 @@
         <v>831</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I149" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="J149" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D150" s="7">
         <v>9780747584674</v>
@@ -4812,18 +4821,18 @@
         <v>768</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I150" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J150" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D151" s="7">
         <v>9788581303437</v>
@@ -4831,10 +4840,10 @@
     </row>
     <row r="152" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D152" s="7">
         <v>9788573027105</v>
@@ -4846,18 +4855,18 @@
         <v>541</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D153" s="7">
         <v>9788573022742</v>
@@ -4869,21 +4878,21 @@
         <v>281</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D154" s="7">
         <v>9788589344463</v>
@@ -4895,15 +4904,15 @@
         <v>167</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D155" s="7">
         <v>9788585580773</v>
@@ -4915,15 +4924,15 @@
         <v>171</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D156" s="7">
         <v>9788535912326</v>
@@ -4931,10 +4940,10 @@
     </row>
     <row r="157" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D157" s="7">
         <v>9788525408754</v>
@@ -4946,18 +4955,18 @@
         <v>245</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D158" s="7">
         <v>9788532505170</v>
@@ -4969,18 +4978,18 @@
         <v>308</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D159" s="7">
         <v>9788804503040</v>
@@ -4992,15 +5001,15 @@
         <v>98</v>
       </c>
       <c r="G159" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J159" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D160" s="7">
         <v>9788587270177</v>
@@ -5008,7 +5017,7 @@
     </row>
     <row r="161" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D161" s="7">
         <v>9788588007772</v>
@@ -5016,7 +5025,7 @@
     </row>
     <row r="162" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D162" s="7">
         <v>9788502067813</v>
@@ -5024,7 +5033,7 @@
     </row>
     <row r="163" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D163" s="7">
         <v>9788477516910</v>
@@ -5032,7 +5041,7 @@
     </row>
     <row r="164" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D164" s="7">
         <v>9788553066776</v>
@@ -5040,7 +5049,7 @@
     </row>
     <row r="165" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D165" s="7">
         <v>9788562215025</v>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="166" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D166" s="7">
         <v>9788566365061</v>
@@ -5056,7 +5065,7 @@
     </row>
     <row r="167" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D167" s="7">
         <v>9788576618638</v>
@@ -5064,7 +5073,7 @@
     </row>
     <row r="168" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D168" s="7">
         <v>9788587658661</v>
@@ -5072,7 +5081,7 @@
     </row>
     <row r="169" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D169" s="7">
         <v>9788598621067</v>
@@ -5080,7 +5089,7 @@
     </row>
     <row r="170" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D170" s="7">
         <v>9788598802800</v>
@@ -5088,7 +5097,7 @@
     </row>
     <row r="171" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D171" s="7">
         <v>9795397055047</v>
@@ -5096,7 +5105,7 @@
     </row>
     <row r="172" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D172" s="7">
         <v>9788580444568</v>
@@ -5104,10 +5113,10 @@
     </row>
     <row r="173" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D173" s="7">
         <v>9788516054595</v>
@@ -5116,18 +5125,18 @@
         <v>176</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D174" s="7">
         <v>9788516043421</v>
@@ -5136,15 +5145,15 @@
         <v>156</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D175" s="7">
         <v>9788587430465</v>
@@ -5152,13 +5161,13 @@
     </row>
     <row r="176" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D176" s="7">
         <v>9788542214536</v>
@@ -5170,18 +5179,18 @@
         <v>224</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D177" s="7">
         <v>9788511140668</v>
@@ -5193,12 +5202,12 @@
         <v>100</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D178" s="7">
         <v>9788568666012</v>
@@ -5206,13 +5215,13 @@
     </row>
     <row r="179" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D179" s="7">
         <v>9788578270704</v>
@@ -5221,21 +5230,21 @@
         <v>96</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D180" s="7">
         <v>9788501059949</v>
@@ -5247,15 +5256,15 @@
         <v>174</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D181" s="7">
         <v>9788592581114</v>
@@ -5263,7 +5272,7 @@
     </row>
     <row r="182" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D182" s="7">
         <v>9788563560315</v>
@@ -5271,10 +5280,10 @@
     </row>
     <row r="183" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D183" s="7">
         <v>9788586075476</v>
@@ -5286,18 +5295,18 @@
         <v>231</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D184" s="7">
         <v>9788525042781</v>
@@ -5306,24 +5315,24 @@
         <v>111</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I184" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J184" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D185" s="7">
         <v>9788522442867</v>
@@ -5335,15 +5344,15 @@
         <v>195</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D186" s="7">
         <v>9788520505120</v>
@@ -5351,7 +5360,7 @@
     </row>
     <row r="187" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D187" s="7">
         <v>9788562595004</v>
@@ -5359,7 +5368,7 @@
     </row>
     <row r="188" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D188" s="7">
         <v>9788587011312</v>
@@ -5367,7 +5376,7 @@
     </row>
     <row r="189" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D189" s="7">
         <v>9788587011237</v>
@@ -5375,7 +5384,7 @@
     </row>
     <row r="190" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D190" s="7">
         <v>9788542203585</v>
@@ -5383,7 +5392,7 @@
     </row>
     <row r="191" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D191" s="7">
         <v>9788525405548</v>
@@ -5391,10 +5400,10 @@
     </row>
     <row r="192" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="D192" s="7">
         <v>9788525406675</v>
@@ -5406,21 +5415,21 @@
         <v>208</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="D193" s="7">
         <v>9788573124125</v>
@@ -5432,15 +5441,15 @@
         <v>178</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D194" s="7">
         <v>9788535636628</v>
@@ -5448,7 +5457,7 @@
     </row>
     <row r="195" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D195" s="7">
         <v>9788525418104</v>
@@ -5456,7 +5465,7 @@
     </row>
     <row r="196" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D196" s="7">
         <v>9788535904680</v>
@@ -5464,10 +5473,10 @@
     </row>
     <row r="197" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D197" s="7">
         <v>9788525427434</v>
@@ -5479,18 +5488,18 @@
         <v>183</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D198" s="7">
         <v>9788575425602</v>
@@ -5502,18 +5511,18 @@
         <v>232</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D199" s="7">
         <v>9788508069880</v>
@@ -5525,15 +5534,15 @@
         <v>688</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D200" s="7">
         <v>9788533620407</v>
@@ -5541,10 +5550,10 @@
     </row>
     <row r="201" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="D201" s="7">
         <v>9788535909227</v>
@@ -5556,18 +5565,18 @@
         <v>487</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D202" s="7">
         <v>9788525408648</v>
@@ -5579,18 +5588,18 @@
         <v>89</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D203" s="7">
         <v>9788503008358</v>
@@ -5602,21 +5611,21 @@
         <v>286</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D204" s="7">
         <v>9788525405821</v>
@@ -5628,18 +5637,18 @@
         <v>344</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D205" s="7">
         <v>9788525412225</v>
@@ -5651,41 +5660,41 @@
         <v>228</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D206" s="7">
         <v>9788587575012</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F206" s="1">
         <v>246</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D207" s="7">
         <v>9788525412102</v>
@@ -5697,18 +5706,18 @@
         <v>156</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D208" s="7">
         <v>9788525413284</v>
@@ -5720,15 +5729,15 @@
         <v>166</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D209" s="7">
         <v>9788577440078</v>
@@ -5736,10 +5745,10 @@
     </row>
     <row r="210" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D210" s="7">
         <v>9788522011261</v>
@@ -5748,15 +5757,15 @@
         <v>272</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D211" s="7">
         <v>9788562989063</v>
@@ -5764,10 +5773,10 @@
     </row>
     <row r="212" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="D212" s="7">
         <v>9788571645400</v>
@@ -5779,18 +5788,18 @@
         <v>378</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="D213" s="7">
         <v>9788532500984</v>
@@ -5802,15 +5811,15 @@
         <v>78</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D214" s="7">
         <v>9788525406088</v>
@@ -5818,13 +5827,13 @@
     </row>
     <row r="215" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D215" s="7">
         <v>9788587171016</v>
@@ -5836,18 +5845,18 @@
         <v>255</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D216" s="7">
         <v>9788576650300</v>
@@ -5859,21 +5868,21 @@
         <v>429</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D217" s="7">
         <v>9788501042880</v>
@@ -5885,15 +5894,15 @@
         <v>157</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D218" s="7">
         <v>9788501056481</v>
@@ -5901,7 +5910,7 @@
     </row>
     <row r="219" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D219" s="7">
         <v>9788573822830</v>
@@ -5909,7 +5918,7 @@
     </row>
     <row r="220" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D220" s="7">
         <v>9788526221857</v>
@@ -5917,10 +5926,10 @@
     </row>
     <row r="221" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D221" s="7">
         <v>9788501023148</v>
@@ -5932,12 +5941,12 @@
         <v>224</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D222" s="7">
         <v>9788577881208</v>
@@ -5945,10 +5954,10 @@
     </row>
     <row r="223" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D223" s="7">
         <v>9788508045280</v>
@@ -5960,15 +5969,15 @@
         <v>96</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D224" s="7">
         <v>9788573020953</v>
@@ -5976,13 +5985,13 @@
     </row>
     <row r="225" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D225" s="7">
         <v>9788586796456</v>
@@ -5994,18 +6003,18 @@
         <v>328</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D226" s="7">
         <v>9788581742465</v>
@@ -6017,15 +6026,15 @@
         <v>101</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D227" s="7">
         <v>9788525408204</v>
@@ -6037,15 +6046,15 @@
         <v>499</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D228" s="7">
         <v>9788525434432</v>
@@ -6053,13 +6062,13 @@
     </row>
     <row r="229" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D229" s="7">
         <v>9788525417596</v>
@@ -6071,18 +6080,18 @@
         <v>323</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="D230" s="7">
         <v>9788589979016</v>
@@ -6094,18 +6103,18 @@
         <v>133</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="D231" s="7">
         <v>9788535905304</v>
@@ -6117,18 +6126,18 @@
         <v>367</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D232" s="7">
         <v>9788575420232</v>
@@ -6140,21 +6149,21 @@
         <v>139</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="D233" s="7">
         <v>9788560096275</v>
@@ -6166,21 +6175,21 @@
         <v>295</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I233" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J233" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D234" s="7">
         <v>9788575426630</v>
@@ -6192,21 +6201,21 @@
         <v>159</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D235" s="7">
         <v>9788571644823</v>
@@ -6218,21 +6227,21 @@
         <v>349</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D236" s="7">
         <v>9788525415943</v>
@@ -6244,15 +6253,15 @@
         <v>160</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D237" s="7">
         <v>9788572326919</v>
@@ -6260,13 +6269,13 @@
     </row>
     <row r="238" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="D238" s="7">
         <v>9788586796791</v>
@@ -6278,18 +6287,18 @@
         <v>189</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D239" s="7">
         <v>9788598078892</v>
@@ -6301,15 +6310,15 @@
         <v>165</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D240" s="7">
         <v>9788580573176</v>
@@ -6317,7 +6326,7 @@
     </row>
     <row r="241" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D241" s="7">
         <v>9788500007767</v>
@@ -6325,10 +6334,10 @@
     </row>
     <row r="242" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D242" s="7">
         <v>9788572448499</v>
@@ -6340,15 +6349,15 @@
         <v>254</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="D243" s="7">
         <v>9788535916263</v>
@@ -6360,18 +6369,18 @@
         <v>522</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D244" s="7">
         <v>9788586269219</v>
@@ -6383,18 +6392,18 @@
         <v>238</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D245" s="7">
         <v>9788520413500</v>
@@ -6406,18 +6415,18 @@
         <v>318</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="D246" s="7">
         <v>9788525410177</v>
@@ -6429,15 +6438,15 @@
         <v>190</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D247" s="7">
         <v>9788580418224</v>
@@ -6445,7 +6454,7 @@
     </row>
     <row r="248" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D248" s="7">
         <v>9788580415087</v>
@@ -6453,7 +6462,7 @@
     </row>
     <row r="249" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D249" s="7">
         <v>9788580415346</v>
@@ -6461,7 +6470,7 @@
     </row>
     <row r="250" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D250" s="7">
         <v>9788535915020</v>
@@ -6469,13 +6478,13 @@
     </row>
     <row r="251" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D251" s="7">
         <v>9788570257901</v>
@@ -6487,15 +6496,15 @@
         <v>285</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D252" s="7">
         <v>9788530931360</v>
@@ -6503,30 +6512,30 @@
     </row>
     <row r="253" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D253" s="7">
         <v>9788576830177</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D254" s="7">
         <v>9788588065260</v>
@@ -6538,18 +6547,18 @@
         <v>139</v>
       </c>
       <c r="G254" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I254" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D255" s="7">
         <v>9788562984327</v>
@@ -6561,12 +6570,12 @@
         <v>79</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D256" s="7">
         <v>9788525427502</v>
@@ -6574,10 +6583,10 @@
     </row>
     <row r="257" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D257" s="7">
         <v>9788501069696</v>
@@ -6589,15 +6598,15 @@
         <v>185</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D258" s="7">
         <v>9788577012534</v>
@@ -6605,10 +6614,10 @@
     </row>
     <row r="259" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D259" s="7">
         <v>9788598078939</v>
@@ -6620,15 +6629,15 @@
         <v>270</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D260" s="7">
         <v>9788580572476</v>
@@ -6636,7 +6645,7 @@
     </row>
     <row r="261" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D261" s="7">
         <v>9788570150073</v>
@@ -6644,13 +6653,13 @@
     </row>
     <row r="262" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D262" s="7">
         <v>9788585418625</v>
@@ -6662,18 +6671,18 @@
         <v>168</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="D263" s="7">
         <v>9788525406170</v>
@@ -6685,15 +6694,15 @@
         <v>134</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D264" s="7">
         <v>9788532261403</v>
@@ -6701,7 +6710,7 @@
     </row>
     <row r="265" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D265" s="7">
         <v>9788524104558</v>
@@ -6709,10 +6718,10 @@
     </row>
     <row r="266" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D266" s="7">
         <v>9788516050528</v>
@@ -6724,18 +6733,18 @@
         <v>160</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D267" s="7">
         <v>9788599296011</v>
@@ -6747,18 +6756,18 @@
         <v>440</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="D268" s="7">
         <v>9788571950337</v>
@@ -6770,15 +6779,15 @@
         <v>151</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D269" s="7">
         <v>9788570633262</v>
@@ -6790,15 +6799,15 @@
         <v>71</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D270" s="7">
         <v>9788516074777</v>
@@ -6806,7 +6815,7 @@
     </row>
     <row r="271" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D271" s="7">
         <v>9788577615049</v>
@@ -6814,10 +6823,10 @@
     </row>
     <row r="272" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D272" s="7">
         <v>9788576751366</v>
@@ -6829,21 +6838,21 @@
         <v>127</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D273" s="7">
         <v>9788574210711</v>
@@ -6855,15 +6864,15 @@
         <v>141</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D274" s="7">
         <v>9788508167197</v>
@@ -6871,7 +6880,7 @@
     </row>
     <row r="275" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D275" s="7">
         <v>9788526293946</v>
@@ -6879,10 +6888,10 @@
     </row>
     <row r="276" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D276" s="7">
         <v>9788525418630</v>
@@ -6891,18 +6900,18 @@
         <v>176</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D277" s="7">
         <v>9788501054029</v>
@@ -6914,15 +6923,15 @@
         <v>107</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D278" s="7">
         <v>9788539500987</v>
@@ -6930,10 +6939,10 @@
     </row>
     <row r="279" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D279" s="7">
         <v>9788563219312</v>
@@ -6942,21 +6951,21 @@
         <v>438</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I279" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J279" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="J279" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D280" s="7">
         <v>9788508063765</v>
@@ -6968,15 +6977,15 @@
         <v>244</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D281" s="7">
         <v>9788501053534</v>
@@ -6984,7 +6993,7 @@
     </row>
     <row r="282" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D282" s="7">
         <v>9788576842392</v>
@@ -6992,10 +7001,10 @@
     </row>
     <row r="283" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D283" s="7">
         <v>9788525407177</v>
@@ -7007,18 +7016,18 @@
         <v>151</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D284" s="7">
         <v>9788573021691</v>
@@ -7030,18 +7039,18 @@
         <v>275</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D285" s="7">
         <v>9788525405203</v>
@@ -7053,18 +7062,18 @@
         <v>118</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D286" s="7">
         <v>9788532628565</v>
@@ -7073,18 +7082,18 @@
         <v>76</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="D287" s="7">
         <v>9788573024845</v>
@@ -7096,21 +7105,21 @@
         <v>106</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="D288" s="7">
         <v>9788576160373</v>
@@ -7122,15 +7131,15 @@
         <v>96</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D289" s="7">
         <v>9786555522891</v>
@@ -7138,13 +7147,13 @@
     </row>
     <row r="290" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D290" s="7">
         <v>9788532609182</v>
@@ -7156,15 +7165,15 @@
         <v>194</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D291" s="7">
         <v>9788541001977</v>
@@ -7172,7 +7181,7 @@
     </row>
     <row r="292" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D292" s="7">
         <v>9788541001991</v>
@@ -7180,10 +7189,10 @@
     </row>
     <row r="293" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D293" s="7">
         <v>9788528900880</v>
@@ -7192,15 +7201,15 @@
         <v>184</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D294" s="7">
         <v>9788576656777</v>
@@ -7208,10 +7217,10 @@
     </row>
     <row r="295" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D295" s="7">
         <v>9788534913140</v>
@@ -7223,15 +7232,15 @@
         <v>76</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D296" s="7">
         <v>9788528004335</v>
@@ -7243,15 +7252,15 @@
         <v>144</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J296" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D297" s="7">
         <v>9781571450067</v>
@@ -7259,7 +7268,7 @@
     </row>
     <row r="298" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D298" s="7">
         <v>9788537008928</v>
@@ -7267,7 +7276,7 @@
     </row>
     <row r="299" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D299" s="7">
         <v>9788501405265</v>
@@ -7275,10 +7284,10 @@
     </row>
     <row r="300" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D300" s="7">
         <v>9788585418250</v>
@@ -7290,18 +7299,18 @@
         <v>143</v>
       </c>
       <c r="G300" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J300" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J300" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="D301" s="7">
         <v>9788580570458</v>
@@ -7313,18 +7322,18 @@
         <v>411</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D302" s="7">
         <v>9788506059616</v>
@@ -7336,15 +7345,15 @@
         <v>116</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D303" s="7">
         <v>9788590597216</v>
@@ -7352,24 +7361,24 @@
     </row>
     <row r="304" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="D304" s="7">
         <v>9788574970981</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D305" s="7">
         <v>9788525410887</v>
@@ -7377,13 +7386,13 @@
     </row>
     <row r="306" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D306" s="7">
         <v>9788565909112</v>
@@ -7395,18 +7404,18 @@
         <v>128</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D307" s="7">
         <v>9788500330025</v>
@@ -7418,18 +7427,18 @@
         <v>115</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D308" s="7">
         <v>9788501005588</v>
@@ -7441,18 +7450,18 @@
         <v>155</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D309" s="7">
         <v>9781592530687</v>
@@ -7464,18 +7473,18 @@
         <v>144</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I309" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J309" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="J309" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D310" s="7">
         <v>9788590834748</v>
@@ -7483,10 +7492,10 @@
     </row>
     <row r="311" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="D311" s="7">
         <v>9788566357387</v>
@@ -7495,18 +7504,18 @@
         <v>96</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D312" s="7">
         <v>9780207180187</v>
@@ -7518,13 +7527,13 @@
         <v>904</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I312" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J312" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="J312" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/biblioteca_reserva_petropolis.xlsx
+++ b/biblioteca_reserva_petropolis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\source\repos\biblioteca.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECE9811-755C-484D-8F3B-D9B3906BA0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AEA5D8-A042-4635-A0A2-670A1A756A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="693">
   <si>
     <t>Title</t>
   </si>
@@ -2096,6 +2096,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>A rede de intrigas do décimo sexto livro da premiada autora inglesa é tecida a partir da história de Rhoda Gradwyn, uma bem-sucedida jornalista investigativa em conflito perene com o próprio passado. É do passado, aliás, que ela carrega a marca de tantas mágoas: uma cicatriz que atravessa seu rosto. Ao decidir livrar-se da cicatriz, Rhoda segue o conselho de seu jovem amigo Robin Boyton e procura o conceituado dr. Chandler-Powell, com quem Robin mantém laços de parentesco distante e interesses numa vultosa herança. No ambiente bucólico e acolhedor da clínica Cheverell Manor, nos arredores de Londres, a morte espera por Rhoda, sem que ela possa sequer imaginar. O assassinato da jornalista, que parecia ser uma fatalidade sem precedentes num ambiente tão austero, toma um ar macabro quando Robin também é encontrado morto na clínica. Chamado a desvendar o caso, o inspetor Dalgliesh e sua equipe vão desmontando uma engrenagem de rancor, mágoas familiares e crueldade pura e simples, que remete, assim como a cicatriz que Rhoda carregou por tantos anos, a desacertos do passado.</t>
   </si>
 </sst>
 </file>
@@ -2398,8 +2401,8 @@
   </sheetPr>
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="E244" workbookViewId="0">
+      <selection activeCell="I251" sqref="I251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6474,6 +6477,9 @@
       </c>
       <c r="D250" s="7">
         <v>9788535915020</v>
+      </c>
+      <c r="I250" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
